--- a/Componentenlijsten/ComponentenlijstRelaisPCB.xlsx
+++ b/Componentenlijsten/ComponentenlijstRelaisPCB.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kazim\Desktop\POZ\Autonomous_Cart_2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kazim\Desktop\POZ\Autonomous_Cart_2\Componentenlijsten\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA57F3DD-10C3-44F1-B9BC-5D18F368899F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7A94FEB-E481-4AD7-AC19-087C5A068B10}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{42B792B0-4795-48E3-A695-BF9CF9749E78}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="28">
   <si>
     <t>Component</t>
   </si>
@@ -114,6 +114,9 @@
   </si>
   <si>
     <t>Farnell</t>
+  </si>
+  <si>
+    <t>Prijzen op 18-5-20</t>
   </si>
 </sst>
 </file>
@@ -123,7 +126,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="_ [$€-2]\ * #,##0.00_ ;_ [$€-2]\ * \-#,##0.00_ ;_ [$€-2]\ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -161,6 +164,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -183,12 +194,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -504,10 +516,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBB21B39-0405-4C12-92C3-2EA1286E89D3}">
-  <dimension ref="A1:E14"/>
+  <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -692,6 +704,11 @@
       </c>
       <c r="E14" s="3" t="s">
         <v>25</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A16" s="5" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>
